--- a/downloaded_files/AERS442_Lecture-35800.xlsx
+++ b/downloaded_files/AERS442_Lecture-35800.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Khalid Mohamed Shafiq Abd-ElmaQsoyd ElbagorYy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230147</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">رنا محمد رفاعى محمد رفاعى </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Mohamed Refaay Mohamed Refaay</x:t>
   </x:si>
   <x:si>
     <x:t>1180150</x:t>
@@ -191,7 +200,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -491,7 +500,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T6"/>
+  <x:dimension ref="A1:T7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -501,7 +510,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.900625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -646,7 +655,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.5528837616</x:v>
+        <x:v>45932.5106782407</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -678,7 +687,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6698400463</x:v>
+        <x:v>45906.5528837616</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -710,7 +719,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6732090625</x:v>
+        <x:v>45906.6698400463</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -728,16 +737,48 @@
       <x:c r="S6" s="2" t="s"/>
       <x:c r="T6" s="2" t="s"/>
     </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45906.6732090625</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(8:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(14:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(8:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(14:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(8:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(14:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/AERS442_Lecture-35800.xlsx
+++ b/downloaded_files/AERS442_Lecture-35800.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Hesham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل حامد محمد علي هزاع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Adel Hamed Mohammed Ali Hazaa</x:t>
   </x:si>
   <x:si>
     <x:t>1220154</x:t>
@@ -200,7 +209,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -500,7 +509,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T7"/>
+  <x:dimension ref="A1:T8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -751,7 +760,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6732090625</x:v>
+        <x:v>45936.5660175579</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -768,6 +777,38 @@
       <x:c r="R7" s="2" t="s"/>
       <x:c r="S7" s="2" t="s"/>
       <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45906.6732090625</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS442_Lecture-35800.xlsx
+++ b/downloaded_files/AERS442_Lecture-35800.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Hesham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد نجم عواد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220089</x:t>
@@ -209,7 +218,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -509,7 +518,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T8"/>
+  <x:dimension ref="A1:T9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -760,7 +769,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45936.5660175579</x:v>
+        <x:v>45945.4025726042</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -792,7 +801,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6732090625</x:v>
+        <x:v>45936.5660175579</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -810,16 +819,48 @@
       <x:c r="S8" s="2" t="s"/>
       <x:c r="T8" s="2" t="s"/>
     </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45906.6732090625</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(14:17)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(15:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(14:17)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(15:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(14:17)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Nondestructive Testing (AERS442) Location : [40312]40312-55-ملحق طيران Time : Thursday(15:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
